--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_6_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_6_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2623247.008023467</v>
+        <v>2620379.457850241</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8444415.160587985</v>
+        <v>8444421.381715728</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673426</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9344922.696785921</v>
+        <v>9344902.278457424</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>314.6536463267108</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>112.8682054096735</v>
       </c>
     </row>
     <row r="3">
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>8.787420751036352</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>238.4258463375494</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,7 +908,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>358.2144869520364</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1057,7 +1057,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1096,28 +1096,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>125.8721928563316</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>112.2638403784901</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,19 +1136,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>95.68020095976658</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>310.2076895020999</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>169.0167291702124</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722627</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>88.99582287279696</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>35.19569619650092</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1768,16 +1768,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>45.18349897297472</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>192.7860573675479</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>17.25588147840154</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2059,10 +2059,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>100.3137235757484</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2245,13 +2245,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>74.75769145492261</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>214.8467271449453</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2479,13 +2479,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>155.6282128623839</v>
+        <v>158.822637857666</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.0402687184132</v>
+        <v>410.0269562204229</v>
       </c>
       <c r="H26" t="n">
-        <v>285.5805435513398</v>
+        <v>285.4442069312964</v>
       </c>
       <c r="I26" t="n">
-        <v>7.594561284787687</v>
+        <v>7.081331206015847</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>89.10156188094672</v>
+        <v>88.79820333299229</v>
       </c>
       <c r="T26" t="n">
-        <v>200.0593924064816</v>
+        <v>200.001116946529</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9246554040988</v>
+        <v>250.9235904042595</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2646,13 +2646,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>134.5278481273042</v>
+        <v>134.5207253129314</v>
       </c>
       <c r="H27" t="n">
-        <v>85.04200907392676</v>
+        <v>84.97321768248381</v>
       </c>
       <c r="I27" t="n">
-        <v>2.579389070766496</v>
+        <v>2.334151821526177</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,13 +2682,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>119.3833537044361</v>
+        <v>119.251050551502</v>
       </c>
       <c r="T27" t="n">
-        <v>188.8156065720235</v>
+        <v>188.7868966316347</v>
       </c>
       <c r="U27" t="n">
-        <v>225.7561406970336</v>
+        <v>225.7556720908249</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2713,19 +2713,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>11.44513570448977</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.6244454949086</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,22 +2758,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>71.1539249212547</v>
+        <v>70.88542329426771</v>
       </c>
       <c r="S28" t="n">
-        <v>182.8784344308282</v>
+        <v>182.7743669785568</v>
       </c>
       <c r="T28" t="n">
-        <v>217.8595503594825</v>
+        <v>217.834035647658</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1902714109318</v>
+        <v>286.1899456912063</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>265.3339468843956</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.0402687184132</v>
+        <v>410.0269562204239</v>
       </c>
       <c r="H29" t="n">
-        <v>285.5805435513397</v>
+        <v>285.4442069312963</v>
       </c>
       <c r="I29" t="n">
-        <v>7.594561284787346</v>
+        <v>7.081331206015278</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>89.10156188094651</v>
+        <v>88.79820333299195</v>
       </c>
       <c r="T29" t="n">
-        <v>200.0593924064815</v>
+        <v>200.0011169465289</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9246554040988</v>
+        <v>250.9235904042595</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2883,13 +2883,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>134.5278481273042</v>
+        <v>134.5207253129314</v>
       </c>
       <c r="H30" t="n">
-        <v>85.04200907392672</v>
+        <v>84.97321768248372</v>
       </c>
       <c r="I30" t="n">
-        <v>2.579389070766339</v>
+        <v>2.334151821525907</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,13 +2919,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>119.383353704436</v>
+        <v>119.2510505515018</v>
       </c>
       <c r="T30" t="n">
-        <v>188.8156065720234</v>
+        <v>188.7868966316346</v>
       </c>
       <c r="U30" t="n">
-        <v>225.7561406970336</v>
+        <v>225.7556720908249</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2950,10 +2950,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>11.44513570449316</v>
+        <v>25.07463205235994</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>141.186535066057</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>71.15392492125451</v>
+        <v>70.88542329426741</v>
       </c>
       <c r="S31" t="n">
-        <v>182.8784344308281</v>
+        <v>182.7743669785567</v>
       </c>
       <c r="T31" t="n">
-        <v>217.8595503594825</v>
+        <v>217.834035647658</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1902714109318</v>
+        <v>286.1899456912063</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3041,13 +3041,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.0402687184132</v>
+        <v>410.0269562204229</v>
       </c>
       <c r="H32" t="n">
-        <v>285.5805435513397</v>
+        <v>285.4442069312963</v>
       </c>
       <c r="I32" t="n">
-        <v>7.594561284787346</v>
+        <v>7.081331206015278</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>89.10156188094651</v>
+        <v>88.79820333299195</v>
       </c>
       <c r="T32" t="n">
-        <v>200.0593924064815</v>
+        <v>200.0011169465289</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9246554040988</v>
+        <v>250.9235904042595</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3120,13 +3120,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>134.5278481273042</v>
+        <v>134.5207253129314</v>
       </c>
       <c r="H33" t="n">
-        <v>85.04200907392672</v>
+        <v>84.97321768248372</v>
       </c>
       <c r="I33" t="n">
-        <v>2.579389070766339</v>
+        <v>2.334151821525907</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,13 +3156,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>119.383353704436</v>
+        <v>119.2510505515018</v>
       </c>
       <c r="T33" t="n">
-        <v>188.8156065720234</v>
+        <v>188.7868966316346</v>
       </c>
       <c r="U33" t="n">
-        <v>225.7561406970336</v>
+        <v>225.7556720908249</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3190,22 +3190,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>77.73090399433278</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>75.59868111371421</v>
+        <v>165.6244454949086</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>84.46192760898758</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>71.15392492125451</v>
+        <v>70.88542329426741</v>
       </c>
       <c r="S34" t="n">
-        <v>182.8784344308281</v>
+        <v>182.7743669785567</v>
       </c>
       <c r="T34" t="n">
-        <v>217.8595503594825</v>
+        <v>217.834035647658</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1902714109318</v>
+        <v>286.1899456912063</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127566</v>
       </c>
       <c r="H35" t="n">
         <v>283.5630920045443</v>
@@ -3424,10 +3424,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>85.25887760429737</v>
+        <v>1.749532638427212</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3436,13 +3436,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206818</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127566</v>
       </c>
       <c r="H38" t="n">
         <v>283.5630920045443</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T38" t="n">
         <v>199.1970568374742</v>
@@ -3597,7 +3597,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H39" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>29.55527856873879</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.4539897919539</v>
+        <v>114.7706165465608</v>
       </c>
       <c r="I40" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S40" t="n">
         <v>181.338488358459</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T41" t="n">
         <v>199.1970568374742</v>
@@ -3834,7 +3834,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H42" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3901,22 +3901,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>96.73603015982255</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S43" t="n">
         <v>181.338488358459</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>93.54448604800628</v>
       </c>
     </row>
     <row r="44">
@@ -3989,10 +3989,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4068,10 +4068,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T45" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>30.97191586387652</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>55.58203503587671</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>228.2778626358874</v>
+        <v>1175.00952757579</v>
       </c>
       <c r="C2" t="n">
-        <v>228.2778626358874</v>
+        <v>806.0470106353781</v>
       </c>
       <c r="D2" t="n">
-        <v>228.2778626358874</v>
+        <v>806.0470106353781</v>
       </c>
       <c r="E2" t="n">
-        <v>228.2778626358874</v>
+        <v>806.0470106353781</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
@@ -4352,10 +4352,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T2" t="n">
         <v>2247.308246834948</v>
@@ -4364,16 +4364,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1289.017815868389</v>
       </c>
       <c r="Y2" t="n">
-        <v>546.109828622464</v>
+        <v>1175.00952757579</v>
       </c>
     </row>
     <row r="3">
@@ -4383,34 +4383,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L3" t="n">
         <v>713.8062203571349</v>
@@ -4419,13 +4419,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C4" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>667.7988452409105</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>667.7988452409105</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U4" t="n">
-        <v>667.7988452409105</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="V4" t="n">
-        <v>667.7988452409105</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="W4" t="n">
-        <v>667.7988452409105</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="X4" t="n">
-        <v>667.7988452409105</v>
+        <v>62.81916439716883</v>
       </c>
       <c r="Y4" t="n">
-        <v>667.7988452409105</v>
+        <v>62.81916439716883</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1689.203741822952</v>
+        <v>854.9003034538785</v>
       </c>
       <c r="C5" t="n">
-        <v>1320.24122488254</v>
+        <v>614.0661152341315</v>
       </c>
       <c r="D5" t="n">
-        <v>961.9755262757897</v>
+        <v>614.0661152341315</v>
       </c>
       <c r="E5" t="n">
-        <v>576.1872736775454</v>
+        <v>228.2778626358873</v>
       </c>
       <c r="F5" t="n">
-        <v>569.2417729283419</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4565,16 +4565,16 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533135</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.961649073312</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224068</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
         <v>1836.345445977174</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862885</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862885</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862885</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862885</v>
+        <v>1971.274048960884</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862885</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="X5" t="n">
-        <v>2465.942913862885</v>
+        <v>1245.03963542969</v>
       </c>
       <c r="Y5" t="n">
-        <v>2075.803581887074</v>
+        <v>854.9003034538785</v>
       </c>
     </row>
     <row r="6">
@@ -4644,13 +4644,13 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372.9958041606071</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D7" t="n">
         <v>53.94298182036444</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="U7" t="n">
-        <v>600.9853550586245</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="V7" t="n">
-        <v>600.9853550586245</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="W7" t="n">
-        <v>600.9853550586245</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="X7" t="n">
-        <v>372.9958041606071</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y7" t="n">
-        <v>372.9958041606071</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1546.944160717209</v>
+        <v>944.4614752479206</v>
       </c>
       <c r="C8" t="n">
-        <v>1177.981643776797</v>
+        <v>575.4989583075089</v>
       </c>
       <c r="D8" t="n">
-        <v>1177.981643776797</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
-        <v>792.1933911785527</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>381.2074863889451</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>367.2840823275361</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757142</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y8" t="n">
-        <v>1933.54400078133</v>
+        <v>1331.061315312042</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799423</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4987,25 +4987,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
@@ -5039,25 +5039,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>685.1208104866384</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1549.639626139993</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2528.189928969822</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>3507.942201196468</v>
+        <v>3070.887536710053</v>
       </c>
       <c r="O11" t="n">
-        <v>4010.914672075805</v>
+        <v>3573.86000758939</v>
       </c>
       <c r="P11" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
         <v>4653.975400188666</v>
@@ -5069,22 +5069,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5118,10 +5118,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L12" t="n">
         <v>794.200663232024</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>500.6091747370264</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C13" t="n">
-        <v>331.6729918091195</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D13" t="n">
-        <v>331.6729918091195</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>331.6729918091195</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>331.6729918091195</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839442</v>
@@ -5200,10 +5200,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M13" t="n">
         <v>1005.387693892251</v>
@@ -5218,31 +5218,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862231</v>
+        <v>1920.79225782541</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1729.106373652236</v>
       </c>
       <c r="T13" t="n">
-        <v>1674.827124689058</v>
+        <v>1507.339758221762</v>
       </c>
       <c r="U13" t="n">
-        <v>1385.724257814701</v>
+        <v>1218.236891347406</v>
       </c>
       <c r="V13" t="n">
-        <v>1131.039769608814</v>
+        <v>963.5524031415188</v>
       </c>
       <c r="W13" t="n">
-        <v>1131.039769608814</v>
+        <v>674.1352331045584</v>
       </c>
       <c r="X13" t="n">
-        <v>903.0502187107968</v>
+        <v>446.1456822065411</v>
       </c>
       <c r="Y13" t="n">
-        <v>682.2576395672661</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="14">
@@ -5255,16 +5255,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G14" t="n">
         <v>435.1415336001585</v>
@@ -5276,25 +5276,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>304.0396960664507</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>637.8590697562972</v>
       </c>
       <c r="L14" t="n">
-        <v>1069.293752345675</v>
+        <v>1088.893283004706</v>
       </c>
       <c r="M14" t="n">
-        <v>2047.844055175503</v>
+        <v>1622.425187676631</v>
       </c>
       <c r="N14" t="n">
-        <v>3027.59632740215</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O14" t="n">
-        <v>3907.560977731604</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P14" t="n">
-        <v>4302.335344088782</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
         <v>4653.975400188666</v>
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089896</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468573</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L15" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5397,10 +5397,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>243.4741280307875</v>
+        <v>438.2075193111402</v>
       </c>
       <c r="C16" t="n">
-        <v>243.4741280307875</v>
+        <v>438.2075193111402</v>
       </c>
       <c r="D16" t="n">
-        <v>243.4741280307875</v>
+        <v>288.0908798988045</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839442</v>
+        <v>288.0908798988045</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839442</v>
+        <v>141.2009324008941</v>
       </c>
       <c r="G16" t="n">
         <v>95.56103444839442</v>
@@ -5434,13 +5434,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
         <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M16" t="n">
         <v>1005.387693892251</v>
@@ -5452,7 +5452,7 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
         <v>1956.343466104703</v>
@@ -5461,25 +5461,25 @@
         <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689057</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258583</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384226</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V16" t="n">
-        <v>909.2731541783394</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W16" t="n">
-        <v>619.8559841413787</v>
+        <v>619.85598414138</v>
       </c>
       <c r="X16" t="n">
-        <v>425.1225928610274</v>
+        <v>619.85598414138</v>
       </c>
       <c r="Y16" t="n">
-        <v>425.1225928610273</v>
+        <v>619.85598414138</v>
       </c>
     </row>
     <row r="17">
@@ -5492,16 +5492,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
         <v>435.1415336001585</v>
@@ -5513,28 +5513,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L17" t="n">
-        <v>1482.778354750621</v>
+        <v>1339.447785386688</v>
       </c>
       <c r="M17" t="n">
-        <v>2461.328657580449</v>
+        <v>2317.998088216516</v>
       </c>
       <c r="N17" t="n">
-        <v>3441.080929807095</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750059</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5543,16 +5543,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>432.2000540015824</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="C19" t="n">
-        <v>263.2638710736754</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D19" t="n">
-        <v>263.2638710736754</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E19" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
         <v>95.56103444839442</v>
@@ -5671,13 +5671,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
         <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M19" t="n">
         <v>1005.387693892251</v>
@@ -5689,34 +5689,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
         <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689057</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258583</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384227</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V19" t="n">
-        <v>1163.957642384227</v>
+        <v>999.1036114208123</v>
       </c>
       <c r="W19" t="n">
-        <v>1062.63064887337</v>
+        <v>709.6864413838517</v>
       </c>
       <c r="X19" t="n">
-        <v>834.6410979753523</v>
+        <v>481.6968904858344</v>
       </c>
       <c r="Y19" t="n">
-        <v>613.8485188318222</v>
+        <v>260.9043113423043</v>
       </c>
     </row>
     <row r="20">
@@ -5732,46 +5732,46 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>351.3014367967928</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K20" t="n">
-        <v>685.1208104866391</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L20" t="n">
-        <v>1549.639626139994</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2528.189928969822</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N20" t="n">
-        <v>3507.942201196469</v>
+        <v>3044.228895027648</v>
       </c>
       <c r="O20" t="n">
-        <v>4010.914672075806</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P20" t="n">
-        <v>4405.689038432984</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5829,25 +5829,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>171.0738540998312</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="C22" t="n">
-        <v>171.0738540998312</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D22" t="n">
-        <v>171.0738540998312</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E22" t="n">
-        <v>171.0738540998312</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>171.0738540998312</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
         <v>95.56103444839442</v>
@@ -5911,10 +5911,10 @@
         <v>140.6836668953299</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442062</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
         <v>1005.387693892251</v>
@@ -5926,7 +5926,7 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
         <v>1956.343466104703</v>
@@ -5935,25 +5935,25 @@
         <v>1866.513008862231</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689057</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258583</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1163.957642384226</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V22" t="n">
-        <v>909.2731541783394</v>
+        <v>909.2731541783403</v>
       </c>
       <c r="W22" t="n">
-        <v>619.8559841413787</v>
+        <v>692.256258072335</v>
       </c>
       <c r="X22" t="n">
-        <v>391.8664332433614</v>
+        <v>464.2667071743176</v>
       </c>
       <c r="Y22" t="n">
-        <v>171.0738540998312</v>
+        <v>243.4741280307875</v>
       </c>
     </row>
     <row r="23">
@@ -5990,25 +5990,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>939.1634975427193</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1803.682313196074</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2337.214217867998</v>
+        <v>2016.310259422545</v>
       </c>
       <c r="N23" t="n">
-        <v>3196.009277420603</v>
+        <v>2996.062531649191</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3800.722831322499</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6078,13 +6078,13 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>245.6776738607302</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="C25" t="n">
-        <v>245.6776738607302</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F25" t="n">
         <v>95.56103444839442</v>
@@ -6163,7 +6163,7 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
         <v>1956.343466104703</v>
@@ -6172,25 +6172,25 @@
         <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>1709.312793849721</v>
+        <v>1706.086101935296</v>
       </c>
       <c r="T25" t="n">
-        <v>1709.312793849721</v>
+        <v>1706.086101935296</v>
       </c>
       <c r="U25" t="n">
-        <v>1420.209926975365</v>
+        <v>1416.983235060939</v>
       </c>
       <c r="V25" t="n">
-        <v>1165.525438769478</v>
+        <v>1162.298746855053</v>
       </c>
       <c r="W25" t="n">
-        <v>876.1082687325173</v>
+        <v>872.881576818092</v>
       </c>
       <c r="X25" t="n">
-        <v>648.1187178345</v>
+        <v>644.8920259200745</v>
       </c>
       <c r="Y25" t="n">
-        <v>427.32613869097</v>
+        <v>424.0994467765445</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2328.482124425629</v>
+        <v>2327.791407896088</v>
       </c>
       <c r="C26" t="n">
-        <v>1959.519607485218</v>
+        <v>1958.828890955676</v>
       </c>
       <c r="D26" t="n">
-        <v>1601.253908878467</v>
+        <v>1600.563192348926</v>
       </c>
       <c r="E26" t="n">
-        <v>1215.465656280223</v>
+        <v>1214.774939750682</v>
       </c>
       <c r="F26" t="n">
-        <v>804.4797514906163</v>
+        <v>803.7890349610748</v>
       </c>
       <c r="G26" t="n">
-        <v>390.2976618760571</v>
+        <v>389.6203923141829</v>
       </c>
       <c r="H26" t="n">
-        <v>101.8324663696533</v>
+        <v>101.292910565399</v>
       </c>
       <c r="I26" t="n">
-        <v>94.16119234461519</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="J26" t="n">
-        <v>357.1047532886071</v>
+        <v>358.2021945153776</v>
       </c>
       <c r="K26" t="n">
-        <v>801.9275083030702</v>
+        <v>804.7014151994147</v>
       </c>
       <c r="L26" t="n">
-        <v>1390.671231675075</v>
+        <v>1469.911723410548</v>
       </c>
       <c r="M26" t="n">
-        <v>2378.953612054105</v>
+        <v>2158.986174458021</v>
       </c>
       <c r="N26" t="n">
-        <v>3081.440188028836</v>
+        <v>2863.824378907434</v>
       </c>
       <c r="O26" t="n">
-        <v>3731.443080300294</v>
+        <v>3516.047847263201</v>
       </c>
       <c r="P26" t="n">
-        <v>4251.704509646625</v>
+        <v>4038.204486922647</v>
       </c>
       <c r="Q26" t="n">
-        <v>4594.226429670194</v>
+        <v>4592.3414717167</v>
       </c>
       <c r="R26" t="n">
-        <v>4708.05961723076</v>
+        <v>4707.002538067131</v>
       </c>
       <c r="S26" t="n">
-        <v>4618.058039573238</v>
+        <v>4617.307383185321</v>
       </c>
       <c r="T26" t="n">
-        <v>4415.977845223257</v>
+        <v>4415.286052936302</v>
       </c>
       <c r="U26" t="n">
-        <v>4162.518597340328</v>
+        <v>4161.827880810786</v>
       </c>
       <c r="V26" t="n">
-        <v>3831.455709996757</v>
+        <v>3830.764993467215</v>
       </c>
       <c r="W26" t="n">
-        <v>3478.687054726643</v>
+        <v>3477.996338197101</v>
       </c>
       <c r="X26" t="n">
-        <v>3105.221296465563</v>
+        <v>3104.530579936021</v>
       </c>
       <c r="Y26" t="n">
-        <v>2715.081964489751</v>
+        <v>2714.39124796021</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>947.7138223180867</v>
+        <v>947.3682853256665</v>
       </c>
       <c r="C27" t="n">
-        <v>773.2607930369597</v>
+        <v>772.9152560445395</v>
       </c>
       <c r="D27" t="n">
-        <v>624.3263833757085</v>
+        <v>623.9808463832883</v>
       </c>
       <c r="E27" t="n">
-        <v>465.0889283702529</v>
+        <v>464.7433913778328</v>
       </c>
       <c r="F27" t="n">
-        <v>318.5543703971379</v>
+        <v>318.2088334047178</v>
       </c>
       <c r="G27" t="n">
-        <v>182.6676551170326</v>
+        <v>182.3293128866052</v>
       </c>
       <c r="H27" t="n">
-        <v>96.76663585043993</v>
+        <v>96.49777987399534</v>
       </c>
       <c r="I27" t="n">
-        <v>94.16119234461519</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="J27" t="n">
-        <v>231.9507289421378</v>
+        <v>232.5958076174674</v>
       </c>
       <c r="K27" t="n">
-        <v>545.6098185067165</v>
+        <v>547.3935737179987</v>
       </c>
       <c r="L27" t="n">
-        <v>1013.685713517276</v>
+        <v>547.3935737179987</v>
       </c>
       <c r="M27" t="n">
-        <v>1579.265073453204</v>
+        <v>1114.759644778733</v>
       </c>
       <c r="N27" t="n">
-        <v>1579.265073453204</v>
+        <v>1387.611243893761</v>
       </c>
       <c r="O27" t="n">
-        <v>1943.379525386857</v>
+        <v>1911.338811047607</v>
       </c>
       <c r="P27" t="n">
-        <v>2343.03746073281</v>
+        <v>2312.343290083222</v>
       </c>
       <c r="Q27" t="n">
-        <v>2560.279010110498</v>
+        <v>2530.484968257455</v>
       </c>
       <c r="R27" t="n">
-        <v>2560.279010110498</v>
+        <v>2559.770360290268</v>
       </c>
       <c r="S27" t="n">
-        <v>2439.689763944401</v>
+        <v>2439.314753672589</v>
       </c>
       <c r="T27" t="n">
-        <v>2248.966929023165</v>
+        <v>2248.62091869114</v>
       </c>
       <c r="U27" t="n">
-        <v>2020.930423268586</v>
+        <v>2020.584886276165</v>
       </c>
       <c r="V27" t="n">
-        <v>1785.778315036843</v>
+        <v>1785.432778044423</v>
       </c>
       <c r="W27" t="n">
-        <v>1531.540958308641</v>
+        <v>1531.195421316221</v>
       </c>
       <c r="X27" t="n">
-        <v>1323.689458103109</v>
+        <v>1323.343921110688</v>
       </c>
       <c r="Y27" t="n">
-        <v>1115.929159338155</v>
+        <v>1115.583622345735</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>402.7285223907095</v>
+        <v>430.3736533810768</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7285223907095</v>
+        <v>261.4374704531695</v>
       </c>
       <c r="D28" t="n">
-        <v>252.6118829783738</v>
+        <v>261.4374704531695</v>
       </c>
       <c r="E28" t="n">
-        <v>241.0511398425255</v>
+        <v>261.4374704531695</v>
       </c>
       <c r="F28" t="n">
-        <v>94.16119234461519</v>
+        <v>261.4374704531695</v>
       </c>
       <c r="G28" t="n">
-        <v>94.16119234461519</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="H28" t="n">
-        <v>94.16119234461519</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="I28" t="n">
-        <v>94.16119234461519</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="J28" t="n">
-        <v>166.9584435603208</v>
+        <v>167.3552671573044</v>
       </c>
       <c r="K28" t="n">
-        <v>416.4235264532478</v>
+        <v>417.5071952352222</v>
       </c>
       <c r="L28" t="n">
-        <v>791.1793793371902</v>
+        <v>793.1419734834323</v>
       </c>
       <c r="M28" t="n">
-        <v>1196.696004649983</v>
+        <v>1199.585302358417</v>
       </c>
       <c r="N28" t="n">
-        <v>1598.004967408916</v>
+        <v>1601.798933740115</v>
       </c>
       <c r="O28" t="n">
-        <v>1952.662452740135</v>
+        <v>1957.292026969318</v>
       </c>
       <c r="P28" t="n">
-        <v>2232.612518185974</v>
+        <v>2237.957099327607</v>
       </c>
       <c r="Q28" t="n">
-        <v>2343.000352396755</v>
+        <v>2348.839967262877</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.127700961144</v>
+        <v>2277.238529591899</v>
       </c>
       <c r="S28" t="n">
-        <v>2086.402009616873</v>
+        <v>2092.617956886286</v>
       </c>
       <c r="T28" t="n">
-        <v>1866.341857738608</v>
+        <v>1872.583577444207</v>
       </c>
       <c r="U28" t="n">
-        <v>1577.260775505344</v>
+        <v>1583.502824220767</v>
       </c>
       <c r="V28" t="n">
-        <v>1322.576287299457</v>
+        <v>1328.81833601488</v>
       </c>
       <c r="W28" t="n">
-        <v>1033.159117262497</v>
+        <v>1060.804248252864</v>
       </c>
       <c r="X28" t="n">
-        <v>805.1695663644794</v>
+        <v>832.8146973548467</v>
       </c>
       <c r="Y28" t="n">
-        <v>584.3769872209492</v>
+        <v>612.0221182113165</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2328.482124425628</v>
+        <v>2327.791407896089</v>
       </c>
       <c r="C29" t="n">
-        <v>1959.519607485217</v>
+        <v>1958.828890955678</v>
       </c>
       <c r="D29" t="n">
-        <v>1601.253908878467</v>
+        <v>1600.563192348927</v>
       </c>
       <c r="E29" t="n">
-        <v>1215.465656280222</v>
+        <v>1214.774939750683</v>
       </c>
       <c r="F29" t="n">
-        <v>804.4797514906149</v>
+        <v>803.7890349610755</v>
       </c>
       <c r="G29" t="n">
-        <v>390.2976618760567</v>
+        <v>389.6203923141826</v>
       </c>
       <c r="H29" t="n">
-        <v>101.8324663696529</v>
+        <v>101.2929105653985</v>
       </c>
       <c r="I29" t="n">
-        <v>94.16119234461517</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="J29" t="n">
-        <v>357.1047532886079</v>
+        <v>358.2021945153788</v>
       </c>
       <c r="K29" t="n">
-        <v>1103.449620215732</v>
+        <v>804.7014151994177</v>
       </c>
       <c r="L29" t="n">
-        <v>1692.193343587738</v>
+        <v>1395.524942477767</v>
       </c>
       <c r="M29" t="n">
-        <v>2378.953612054097</v>
+        <v>2084.599393525242</v>
       </c>
       <c r="N29" t="n">
-        <v>3081.44018802883</v>
+        <v>2789.437597974657</v>
       </c>
       <c r="O29" t="n">
-        <v>3731.44308030029</v>
+        <v>3441.661066330427</v>
       </c>
       <c r="P29" t="n">
-        <v>4251.704509646623</v>
+        <v>4248.39632767595</v>
       </c>
       <c r="Q29" t="n">
-        <v>4594.226429670192</v>
+        <v>4592.341471716699</v>
       </c>
       <c r="R29" t="n">
-        <v>4708.059617230759</v>
+        <v>4707.002538067131</v>
       </c>
       <c r="S29" t="n">
-        <v>4618.058039573237</v>
+        <v>4617.307383185322</v>
       </c>
       <c r="T29" t="n">
-        <v>4415.977845223255</v>
+        <v>4415.286052936302</v>
       </c>
       <c r="U29" t="n">
-        <v>4162.518597340327</v>
+        <v>4161.827880810788</v>
       </c>
       <c r="V29" t="n">
-        <v>3831.455709996756</v>
+        <v>3830.764993467217</v>
       </c>
       <c r="W29" t="n">
-        <v>3478.687054726642</v>
+        <v>3477.996338197103</v>
       </c>
       <c r="X29" t="n">
-        <v>3105.221296465562</v>
+        <v>3104.530579936023</v>
       </c>
       <c r="Y29" t="n">
-        <v>2715.08196448975</v>
+        <v>2714.391247960211</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>947.7138223180865</v>
+        <v>947.3682853256663</v>
       </c>
       <c r="C30" t="n">
-        <v>773.2607930369595</v>
+        <v>772.9152560445393</v>
       </c>
       <c r="D30" t="n">
-        <v>624.3263833757082</v>
+        <v>623.9808463832881</v>
       </c>
       <c r="E30" t="n">
-        <v>465.0889283702527</v>
+        <v>464.7433913778325</v>
       </c>
       <c r="F30" t="n">
-        <v>318.5543703971377</v>
+        <v>318.2088334047174</v>
       </c>
       <c r="G30" t="n">
-        <v>182.6676551170324</v>
+        <v>182.3293128866049</v>
       </c>
       <c r="H30" t="n">
-        <v>96.76663585043976</v>
+        <v>96.49777987399507</v>
       </c>
       <c r="I30" t="n">
-        <v>94.16119234461517</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="J30" t="n">
-        <v>94.16119234461517</v>
+        <v>232.5958076174682</v>
       </c>
       <c r="K30" t="n">
-        <v>314.7670628650948</v>
+        <v>232.5958076174682</v>
       </c>
       <c r="L30" t="n">
-        <v>782.8429578756558</v>
+        <v>232.5958076174682</v>
       </c>
       <c r="M30" t="n">
-        <v>1348.422317811585</v>
+        <v>799.9618786782041</v>
       </c>
       <c r="N30" t="n">
-        <v>1943.379525386856</v>
+        <v>1396.75308630523</v>
       </c>
       <c r="O30" t="n">
-        <v>1943.379525386856</v>
+        <v>1920.480653459078</v>
       </c>
       <c r="P30" t="n">
-        <v>2343.037460732809</v>
+        <v>2312.34329008322</v>
       </c>
       <c r="Q30" t="n">
-        <v>2560.279010110498</v>
+        <v>2530.484968257454</v>
       </c>
       <c r="R30" t="n">
-        <v>2560.279010110498</v>
+        <v>2559.770360290267</v>
       </c>
       <c r="S30" t="n">
-        <v>2439.689763944401</v>
+        <v>2439.314753672589</v>
       </c>
       <c r="T30" t="n">
-        <v>2248.966929023165</v>
+        <v>2248.62091869114</v>
       </c>
       <c r="U30" t="n">
-        <v>2020.930423268585</v>
+        <v>2020.584886276165</v>
       </c>
       <c r="V30" t="n">
-        <v>1785.778315036843</v>
+        <v>1785.432778044423</v>
       </c>
       <c r="W30" t="n">
-        <v>1531.540958308641</v>
+        <v>1531.195421316221</v>
       </c>
       <c r="X30" t="n">
-        <v>1323.689458103108</v>
+        <v>1323.343921110688</v>
       </c>
       <c r="Y30" t="n">
-        <v>1115.929159338154</v>
+        <v>1115.583622345734</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>402.728522390713</v>
+        <v>408.9705711061388</v>
       </c>
       <c r="C31" t="n">
-        <v>391.1677792548613</v>
+        <v>383.6426599421388</v>
       </c>
       <c r="D31" t="n">
-        <v>241.0511398425255</v>
+        <v>383.6426599421388</v>
       </c>
       <c r="E31" t="n">
-        <v>241.0511398425255</v>
+        <v>383.6426599421388</v>
       </c>
       <c r="F31" t="n">
-        <v>94.16119234461519</v>
+        <v>236.7527124442285</v>
       </c>
       <c r="G31" t="n">
-        <v>94.16119234461519</v>
+        <v>236.7527124442285</v>
       </c>
       <c r="H31" t="n">
-        <v>94.16119234461519</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="I31" t="n">
-        <v>94.16119234461519</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="J31" t="n">
-        <v>166.9584435603211</v>
+        <v>167.355267157305</v>
       </c>
       <c r="K31" t="n">
-        <v>416.4235264532485</v>
+        <v>417.5071952352235</v>
       </c>
       <c r="L31" t="n">
-        <v>791.1793793371914</v>
+        <v>793.1419734834345</v>
       </c>
       <c r="M31" t="n">
-        <v>1196.696004649986</v>
+        <v>1199.58530235842</v>
       </c>
       <c r="N31" t="n">
-        <v>1598.004967408918</v>
+        <v>1601.798933740119</v>
       </c>
       <c r="O31" t="n">
-        <v>1952.662452740138</v>
+        <v>1957.292026969324</v>
       </c>
       <c r="P31" t="n">
-        <v>2232.612518185977</v>
+        <v>2237.957099327613</v>
       </c>
       <c r="Q31" t="n">
-        <v>2343.000352396759</v>
+        <v>2348.839967262883</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.127700961148</v>
+        <v>2277.238529591906</v>
       </c>
       <c r="S31" t="n">
-        <v>2086.402009616877</v>
+        <v>2092.617956886293</v>
       </c>
       <c r="T31" t="n">
-        <v>1866.341857738612</v>
+        <v>1872.583577444214</v>
       </c>
       <c r="U31" t="n">
-        <v>1577.260775505348</v>
+        <v>1583.502824220773</v>
       </c>
       <c r="V31" t="n">
-        <v>1322.576287299461</v>
+        <v>1328.818336014886</v>
       </c>
       <c r="W31" t="n">
-        <v>1033.1591172625</v>
+        <v>1039.401165977926</v>
       </c>
       <c r="X31" t="n">
-        <v>805.1695663644828</v>
+        <v>811.4116150799086</v>
       </c>
       <c r="Y31" t="n">
-        <v>584.3769872209526</v>
+        <v>590.6190359363785</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2328.482124425629</v>
+        <v>2327.791407896088</v>
       </c>
       <c r="C32" t="n">
-        <v>1959.519607485218</v>
+        <v>1958.828890955676</v>
       </c>
       <c r="D32" t="n">
-        <v>1601.253908878467</v>
+        <v>1600.563192348926</v>
       </c>
       <c r="E32" t="n">
-        <v>1215.465656280223</v>
+        <v>1214.774939750682</v>
       </c>
       <c r="F32" t="n">
-        <v>804.4797514906154</v>
+        <v>803.7890349610739</v>
       </c>
       <c r="G32" t="n">
-        <v>390.2976618760566</v>
+        <v>389.620392314182</v>
       </c>
       <c r="H32" t="n">
-        <v>101.8324663696529</v>
+        <v>101.2929105653984</v>
       </c>
       <c r="I32" t="n">
-        <v>94.16119234461517</v>
+        <v>94.14005076134261</v>
       </c>
       <c r="J32" t="n">
-        <v>524.5104023089609</v>
+        <v>358.2021945153788</v>
       </c>
       <c r="K32" t="n">
-        <v>969.3331573234252</v>
+        <v>804.7014151994176</v>
       </c>
       <c r="L32" t="n">
-        <v>1558.076880695432</v>
+        <v>1395.524942477767</v>
       </c>
       <c r="M32" t="n">
-        <v>2244.837149161791</v>
+        <v>2084.599393525242</v>
       </c>
       <c r="N32" t="n">
-        <v>2947.323725136524</v>
+        <v>2789.437597974657</v>
       </c>
       <c r="O32" t="n">
-        <v>3597.326617407984</v>
+        <v>3441.661066330427</v>
       </c>
       <c r="P32" t="n">
-        <v>4117.588046754317</v>
+        <v>4248.396327675949</v>
       </c>
       <c r="Q32" t="n">
-        <v>4529.16717399594</v>
+        <v>4592.341471716698</v>
       </c>
       <c r="R32" t="n">
-        <v>4708.059617230759</v>
+        <v>4707.00253806713</v>
       </c>
       <c r="S32" t="n">
-        <v>4618.058039573237</v>
+        <v>4617.30738318532</v>
       </c>
       <c r="T32" t="n">
-        <v>4415.977845223256</v>
+        <v>4415.286052936301</v>
       </c>
       <c r="U32" t="n">
-        <v>4162.518597340328</v>
+        <v>4161.827880810786</v>
       </c>
       <c r="V32" t="n">
-        <v>3831.455709996757</v>
+        <v>3830.764993467215</v>
       </c>
       <c r="W32" t="n">
-        <v>3478.687054726643</v>
+        <v>3477.996338197101</v>
       </c>
       <c r="X32" t="n">
-        <v>3105.221296465563</v>
+        <v>3104.530579936021</v>
       </c>
       <c r="Y32" t="n">
-        <v>2715.081964489751</v>
+        <v>2714.39124796021</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>947.7138223180865</v>
+        <v>947.3682853256661</v>
       </c>
       <c r="C33" t="n">
-        <v>773.2607930369595</v>
+        <v>772.9152560445391</v>
       </c>
       <c r="D33" t="n">
-        <v>624.3263833757082</v>
+        <v>623.9808463832878</v>
       </c>
       <c r="E33" t="n">
-        <v>465.0889283702527</v>
+        <v>464.7433913778324</v>
       </c>
       <c r="F33" t="n">
-        <v>318.5543703971377</v>
+        <v>318.2088334047174</v>
       </c>
       <c r="G33" t="n">
-        <v>182.6676551170324</v>
+        <v>182.3293128866049</v>
       </c>
       <c r="H33" t="n">
-        <v>96.76663585043976</v>
+        <v>96.49777987399504</v>
       </c>
       <c r="I33" t="n">
-        <v>94.16119234461517</v>
+        <v>94.14005076134261</v>
       </c>
       <c r="J33" t="n">
-        <v>94.16119234461517</v>
+        <v>232.5958076174681</v>
       </c>
       <c r="K33" t="n">
-        <v>94.16119234461517</v>
+        <v>547.3935737180007</v>
       </c>
       <c r="L33" t="n">
-        <v>260.7931424681709</v>
+        <v>1017.000559852563</v>
       </c>
       <c r="M33" t="n">
-        <v>826.3725024041</v>
+        <v>1584.366630913299</v>
       </c>
       <c r="N33" t="n">
-        <v>1421.329709979371</v>
+        <v>1911.338811047603</v>
       </c>
       <c r="O33" t="n">
-        <v>1943.379525386856</v>
+        <v>1911.338811047603</v>
       </c>
       <c r="P33" t="n">
-        <v>2343.037460732809</v>
+        <v>2312.34329008322</v>
       </c>
       <c r="Q33" t="n">
-        <v>2560.279010110498</v>
+        <v>2530.484968257454</v>
       </c>
       <c r="R33" t="n">
-        <v>2560.279010110498</v>
+        <v>2559.770360290267</v>
       </c>
       <c r="S33" t="n">
-        <v>2439.689763944401</v>
+        <v>2439.314753672589</v>
       </c>
       <c r="T33" t="n">
-        <v>2248.966929023165</v>
+        <v>2248.62091869114</v>
       </c>
       <c r="U33" t="n">
-        <v>2020.930423268585</v>
+        <v>2020.584886276165</v>
       </c>
       <c r="V33" t="n">
-        <v>1785.778315036843</v>
+        <v>1785.432778044422</v>
       </c>
       <c r="W33" t="n">
-        <v>1531.540958308641</v>
+        <v>1531.195421316221</v>
       </c>
       <c r="X33" t="n">
-        <v>1323.689458103108</v>
+        <v>1323.343921110688</v>
       </c>
       <c r="Y33" t="n">
-        <v>1115.929159338154</v>
+        <v>1115.583622345734</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>402.7285223907091</v>
+        <v>636.9601220041557</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7285223907091</v>
+        <v>636.9601220041557</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7285223907091</v>
+        <v>486.84348259182</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7285223907091</v>
+        <v>408.3274179510798</v>
       </c>
       <c r="F34" t="n">
-        <v>255.8385748927988</v>
+        <v>261.4374704531695</v>
       </c>
       <c r="G34" t="n">
-        <v>179.4762707375319</v>
+        <v>94.14005076134261</v>
       </c>
       <c r="H34" t="n">
-        <v>179.4762707375319</v>
+        <v>94.14005076134261</v>
       </c>
       <c r="I34" t="n">
-        <v>94.16119234461517</v>
+        <v>94.14005076134261</v>
       </c>
       <c r="J34" t="n">
-        <v>166.9584435603211</v>
+        <v>167.3552671573048</v>
       </c>
       <c r="K34" t="n">
-        <v>416.4235264532486</v>
+        <v>417.5071952352234</v>
       </c>
       <c r="L34" t="n">
-        <v>791.1793793371916</v>
+        <v>793.1419734834344</v>
       </c>
       <c r="M34" t="n">
-        <v>1196.696004649986</v>
+        <v>1199.58530235842</v>
       </c>
       <c r="N34" t="n">
-        <v>1598.004967408919</v>
+        <v>1601.798933740119</v>
       </c>
       <c r="O34" t="n">
-        <v>1952.662452740139</v>
+        <v>1957.292026969323</v>
       </c>
       <c r="P34" t="n">
-        <v>2232.612518185977</v>
+        <v>2237.957099327613</v>
       </c>
       <c r="Q34" t="n">
-        <v>2343.000352396759</v>
+        <v>2348.839967262883</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.127700961149</v>
+        <v>2277.238529591906</v>
       </c>
       <c r="S34" t="n">
-        <v>2086.402009616878</v>
+        <v>2092.617956886293</v>
       </c>
       <c r="T34" t="n">
-        <v>1866.341857738613</v>
+        <v>1872.583577444214</v>
       </c>
       <c r="U34" t="n">
-        <v>1577.260775505344</v>
+        <v>1583.502824220773</v>
       </c>
       <c r="V34" t="n">
-        <v>1322.576287299457</v>
+        <v>1328.818336014886</v>
       </c>
       <c r="W34" t="n">
-        <v>1033.159117262496</v>
+        <v>1039.401165977926</v>
       </c>
       <c r="X34" t="n">
-        <v>805.169566364479</v>
+        <v>1039.401165977926</v>
       </c>
       <c r="Y34" t="n">
-        <v>584.3769872209489</v>
+        <v>818.6085868343954</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C35" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D35" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284207</v>
       </c>
       <c r="E35" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685963</v>
       </c>
       <c r="F35" t="n">
-        <v>794.2588208963563</v>
+        <v>794.2588208963555</v>
       </c>
       <c r="G35" t="n">
         <v>380.2757138127629</v>
@@ -6947,10 +6947,10 @@
         <v>2183.498949883215</v>
       </c>
       <c r="N35" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O35" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P35" t="n">
         <v>4202.751434297606</v>
@@ -6968,19 +6968,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U35" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V35" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W35" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X35" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I36" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612962</v>
       </c>
       <c r="J36" t="n">
-        <v>241.496329903453</v>
+        <v>94.88738072612962</v>
       </c>
       <c r="K36" t="n">
-        <v>572.0050724668117</v>
+        <v>208.6365868072512</v>
       </c>
       <c r="L36" t="n">
-        <v>1062.737405310563</v>
+        <v>699.3689196510026</v>
       </c>
       <c r="M36" t="n">
-        <v>1654.755759562691</v>
+        <v>699.3689196510026</v>
       </c>
       <c r="N36" t="n">
-        <v>2006.935879695572</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.812354695766</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R36" t="n">
         <v>2553.812354695766</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>495.0957149476005</v>
+        <v>495.0957149476002</v>
       </c>
       <c r="C37" t="n">
-        <v>495.0957149476005</v>
+        <v>326.1595320196933</v>
       </c>
       <c r="D37" t="n">
-        <v>408.9756365594213</v>
+        <v>324.3923273344133</v>
       </c>
       <c r="E37" t="n">
-        <v>261.0625429770282</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0625429770282</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="G37" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="H37" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I37" t="n">
         <v>93.84834815160703</v>
@@ -7096,7 +7096,7 @@
         <v>172.8304710411609</v>
       </c>
       <c r="K37" t="n">
-        <v>432.4591980117247</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L37" t="n">
         <v>820.2210160948589</v>
@@ -7108,37 +7108,37 @@
         <v>1654.146473931025</v>
       </c>
       <c r="O37" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946054</v>
       </c>
       <c r="P37" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782259</v>
       </c>
       <c r="Q37" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335694</v>
       </c>
       <c r="R37" t="n">
-        <v>2361.553154294196</v>
+        <v>2361.553154294195</v>
       </c>
       <c r="S37" t="n">
         <v>2178.382964033126</v>
       </c>
       <c r="T37" t="n">
-        <v>1958.704181747509</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U37" t="n">
-        <v>1669.627968062236</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V37" t="n">
-        <v>1414.943479856349</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W37" t="n">
-        <v>1125.526309819388</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X37" t="n">
-        <v>897.5367589213706</v>
+        <v>897.5367589213701</v>
       </c>
       <c r="Y37" t="n">
-        <v>676.7441797778403</v>
+        <v>676.7441797778399</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>1949.298676890958</v>
       </c>
       <c r="D38" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284207</v>
       </c>
       <c r="E38" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685963</v>
       </c>
       <c r="F38" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963555</v>
       </c>
       <c r="G38" t="n">
         <v>380.2757138127629</v>
@@ -7172,28 +7172,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J38" t="n">
-        <v>373.3442236507199</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K38" t="n">
-        <v>842.9746074384018</v>
+        <v>893.7741287892015</v>
       </c>
       <c r="L38" t="n">
-        <v>1462.494387944176</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M38" t="n">
-        <v>2183.498949883214</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N38" t="n">
-        <v>2920.78392780032</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O38" t="n">
-        <v>3603.645964259458</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P38" t="n">
-        <v>4151.951912946806</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q38" t="n">
-        <v>4515.534099052813</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R38" t="n">
         <v>4692.417407580351</v>
@@ -7251,28 +7251,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J39" t="n">
-        <v>93.84834815160703</v>
+        <v>163.4947075553177</v>
       </c>
       <c r="K39" t="n">
-        <v>93.84834815160703</v>
+        <v>163.4947075553177</v>
       </c>
       <c r="L39" t="n">
-        <v>373.2380436180325</v>
+        <v>654.2270403990691</v>
       </c>
       <c r="M39" t="n">
-        <v>965.2563978701601</v>
+        <v>1246.245394651197</v>
       </c>
       <c r="N39" t="n">
-        <v>1587.352361269496</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="O39" t="n">
-        <v>2134.22883626969</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R39" t="n">
         <v>2553.812354695766</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>495.0957149476</v>
+        <v>676.7441797778393</v>
       </c>
       <c r="C40" t="n">
-        <v>495.0957149476</v>
+        <v>507.8079968499326</v>
       </c>
       <c r="D40" t="n">
-        <v>495.0957149476</v>
+        <v>357.6913574375969</v>
       </c>
       <c r="E40" t="n">
-        <v>495.0957149476</v>
+        <v>209.7782638552038</v>
       </c>
       <c r="F40" t="n">
-        <v>348.2057674496896</v>
+        <v>209.7782638552038</v>
       </c>
       <c r="G40" t="n">
-        <v>318.3519507135898</v>
+        <v>209.7782638552038</v>
       </c>
       <c r="H40" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I40" t="n">
         <v>93.84834815160703</v>
@@ -7345,16 +7345,16 @@
         <v>1654.146473931025</v>
       </c>
       <c r="O40" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946054</v>
       </c>
       <c r="P40" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782259</v>
       </c>
       <c r="Q40" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335694</v>
       </c>
       <c r="R40" t="n">
-        <v>2361.553154294196</v>
+        <v>2361.553154294195</v>
       </c>
       <c r="S40" t="n">
         <v>2178.382964033126</v>
@@ -7363,19 +7363,19 @@
         <v>1958.704181747508</v>
       </c>
       <c r="U40" t="n">
-        <v>1669.627968062235</v>
+        <v>1669.627968062234</v>
       </c>
       <c r="V40" t="n">
-        <v>1414.943479856348</v>
+        <v>1414.943479856347</v>
       </c>
       <c r="W40" t="n">
         <v>1125.526309819387</v>
       </c>
       <c r="X40" t="n">
-        <v>897.5367589213698</v>
+        <v>897.5367589213695</v>
       </c>
       <c r="Y40" t="n">
-        <v>676.7441797778397</v>
+        <v>676.7441797778393</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2318.261193831369</v>
       </c>
       <c r="C41" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D41" t="n">
         <v>1591.032978284208</v>
@@ -7409,16 +7409,16 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J41" t="n">
-        <v>373.3442236507199</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K41" t="n">
-        <v>842.9746074384018</v>
+        <v>893.7741287892015</v>
       </c>
       <c r="L41" t="n">
-        <v>1462.494387944176</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M41" t="n">
-        <v>2183.498949883214</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N41" t="n">
         <v>2971.58344915112</v>
@@ -7485,31 +7485,31 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I42" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612962</v>
       </c>
       <c r="J42" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612962</v>
       </c>
       <c r="K42" t="n">
-        <v>93.84834815160703</v>
+        <v>425.3961232894884</v>
       </c>
       <c r="L42" t="n">
-        <v>142.6767696327857</v>
+        <v>916.1284561332398</v>
       </c>
       <c r="M42" t="n">
-        <v>734.6951238849133</v>
+        <v>1508.146810385368</v>
       </c>
       <c r="N42" t="n">
-        <v>1356.791087284249</v>
+        <v>1508.146810385368</v>
       </c>
       <c r="O42" t="n">
-        <v>1903.667562284444</v>
+        <v>2055.023285385562</v>
       </c>
       <c r="P42" t="n">
-        <v>2323.25108071052</v>
+        <v>2474.606803811638</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R42" t="n">
         <v>2553.812354695766</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>562.9550599890987</v>
+        <v>621.3989142446594</v>
       </c>
       <c r="C43" t="n">
-        <v>562.9550599890987</v>
+        <v>621.3989142446594</v>
       </c>
       <c r="D43" t="n">
-        <v>562.9550599890987</v>
+        <v>471.2822748323237</v>
       </c>
       <c r="E43" t="n">
-        <v>562.9550599890987</v>
+        <v>323.3691812499305</v>
       </c>
       <c r="F43" t="n">
-        <v>416.0651124911884</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="G43" t="n">
-        <v>318.3519507135898</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="H43" t="n">
         <v>176.4792337520202</v>
       </c>
       <c r="I43" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J43" t="n">
-        <v>172.8304710411609</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K43" t="n">
-        <v>432.4591980117245</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L43" t="n">
-        <v>820.2210160948588</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M43" t="n">
         <v>1239.450608139318</v>
@@ -7582,7 +7582,7 @@
         <v>1654.146473931025</v>
       </c>
       <c r="O43" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946054</v>
       </c>
       <c r="P43" t="n">
         <v>2311.699365782259</v>
@@ -7591,28 +7591,28 @@
         <v>2429.412499335694</v>
       </c>
       <c r="R43" t="n">
-        <v>2429.412499335694</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S43" t="n">
-        <v>2246.242309074624</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T43" t="n">
-        <v>2026.563526789006</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U43" t="n">
-        <v>1737.487313103733</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V43" t="n">
-        <v>1482.802824897847</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W43" t="n">
-        <v>1193.385654860886</v>
+        <v>1125.526309819388</v>
       </c>
       <c r="X43" t="n">
-        <v>965.3961039628686</v>
+        <v>897.5367589213702</v>
       </c>
       <c r="Y43" t="n">
-        <v>744.6035248193384</v>
+        <v>803.0473790748991</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.80771165551</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.845194715098</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.579496108348</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.791243510104</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F44" t="n">
-        <v>793.8053387204961</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8625725399037</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H44" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="I44" t="n">
-        <v>95.37264148556051</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J44" t="n">
-        <v>378.2242654148058</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8840462112153</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.643238436022</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.590348118413</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.930211459572</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.453976171644</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.445555798342</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.29741395589</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.864837502229</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.316842596213</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.284286578419</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.844184570208</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.781297226637</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W44" t="n">
-        <v>3468.012641956523</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.546883695443</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.407551719632</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.4307983814818</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9777691003549</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0433594391036</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E45" t="n">
-        <v>460.805904433648</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F45" t="n">
-        <v>314.271346460533</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G45" t="n">
-        <v>178.5126805064408</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H45" t="n">
         <v>93.84834815160703</v>
@@ -7728,49 +7728,49 @@
         <v>93.84834815160703</v>
       </c>
       <c r="K45" t="n">
-        <v>93.84834815160703</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="L45" t="n">
-        <v>119.3219818740134</v>
+        <v>526.9340838249508</v>
       </c>
       <c r="M45" t="n">
-        <v>716.7004695005653</v>
+        <v>1118.952438077079</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.298433055172</v>
+        <v>1741.048401476415</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.208163294459</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.831312789528</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.09297316441</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.09297316441</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.882187067023</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.675480788796</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.647399331981</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.495291100238</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W45" t="n">
-        <v>1527.257934372037</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.406434166504</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.64613540155</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="46">
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.9309895913045</v>
+        <v>728.0284588996637</v>
       </c>
       <c r="C46" t="n">
-        <v>580.9309895913045</v>
+        <v>559.0922759717569</v>
       </c>
       <c r="D46" t="n">
-        <v>580.9309895913045</v>
+        <v>408.9756365594213</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6462260924393</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7562785945289</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5601793094089</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H46" t="n">
         <v>93.84834815160703</v>
@@ -7804,52 +7804,52 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0843665819309</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7736291074695</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1722232834097</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.181926014444</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.591797674453</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.121078383438</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.796533956996</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.994768683896</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.994768683896</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.1399343388</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.538469361741</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.463242705939</v>
+        <v>1902.560712014299</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.778754500052</v>
+        <v>1647.876223808412</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.361584463092</v>
+        <v>1358.459053771451</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3720335650745</v>
+        <v>1130.469502873434</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5794544215444</v>
+        <v>909.6769237299035</v>
       </c>
     </row>
   </sheetData>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028821</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720731</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8231,7 +8231,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714823</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8544,7 +8544,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783523</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8687,16 +8687,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>67.53663776704252</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
@@ -8705,10 +8705,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>229.1543674071818</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>19.7975057161928</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -8942,10 +8942,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>104.3976710547489</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9161,13 +9161,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>103.7862464855152</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9176,16 +9176,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>133.253057640027</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>67.53663776704337</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>410.4190035206678</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9647,19 +9647,19 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>315.1679217109325</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>304.7351805999706</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9878,10 +9878,10 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>75.13816255837048</v>
       </c>
       <c r="M26" t="n">
-        <v>304.5677898107797</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>304.567789810767</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10127,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>287.4531532182574</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10364,13 +10364,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>287.4531532182565</v>
       </c>
       <c r="Q32" t="n">
-        <v>69.75475476571074</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10595,13 +10595,13 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>51.31264782908988</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>51.31264782908966</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>51.31264782909039</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>51.31264782909091</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>51.31264782909039</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>51.31264782909102</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>51.31264782908966</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>77.02998538623126</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>53.73645647354643</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23656,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590283</v>
+        <v>120.8423092860535</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983815</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>32.92359802148925</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>162.5760987035358</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983815</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,10 +23947,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>186.2092747608426</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>91.26811680410565</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983815</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>71.67627119164572</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590283</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983815</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>34.14081246905803</v>
+        <v>30.94638747377593</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>134.9888269420794</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.6304170232079</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>141.2396273813003</v>
+        <v>141.186535066057</v>
       </c>
       <c r="I28" t="n">
-        <v>84.46192760898771</v>
+        <v>84.28234746704007</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>21.18905145219543</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,10 +24838,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>155.8016853941347</v>
+        <v>142.1721890462679</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.6304170232079</v>
+        <v>165.6244454949086</v>
       </c>
       <c r="H31" t="n">
-        <v>141.2396273813003</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>84.46192760898758</v>
+        <v>84.28234746703987</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>68.70305865223639</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>90.03173590949372</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>141.2396273813003</v>
+        <v>141.186535066057</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>84.28234746703987</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25312,10 +25312,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>63.356595413915</v>
+        <v>146.8659403797851</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H37" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I37" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>135.9867743084281</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>25.68337324539313</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>68.80602271734438</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>125.0401673040885</v>
       </c>
     </row>
     <row r="44">
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>115.4620467826927</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>230.6034165125438</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>795136.1784970291</v>
+        <v>795136.178497029</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>795136.178497029</v>
+        <v>795136.1784970291</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>795136.1784970292</v>
+        <v>795136.1784970291</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>795136.1784970291</v>
+        <v>795136.1784970292</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>795136.1784970291</v>
+        <v>795136.178497029</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>791582.4465088228</v>
+        <v>791528.7750836284</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>791582.4465088228</v>
+        <v>791528.7750836281</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>791582.4465088226</v>
+        <v>791528.7750836281</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>790788.2394957488</v>
+        <v>790788.2394957489</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>790627.59848783</v>
+        <v>790788.2394957487</v>
       </c>
     </row>
   </sheetData>
@@ -26317,43 +26317,43 @@
         <v>636307.3716448196</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448194</v>
       </c>
       <c r="E2" t="n">
-        <v>615476.7696748236</v>
+        <v>615476.7696748237</v>
       </c>
       <c r="F2" t="n">
-        <v>615476.769674824</v>
+        <v>615476.7696748235</v>
       </c>
       <c r="G2" t="n">
         <v>615476.7696748237</v>
       </c>
       <c r="H2" t="n">
-        <v>615476.7696748239</v>
+        <v>615476.7696748234</v>
       </c>
       <c r="I2" t="n">
-        <v>615476.7696748235</v>
+        <v>615476.7696748237</v>
       </c>
       <c r="J2" t="n">
-        <v>623407.0139118118</v>
+        <v>623526.7830761019</v>
       </c>
       <c r="K2" t="n">
-        <v>623407.0139118115</v>
+        <v>623526.7830761018</v>
       </c>
       <c r="L2" t="n">
-        <v>623407.0139118115</v>
+        <v>623526.7830761019</v>
       </c>
       <c r="M2" t="n">
-        <v>625179.3072668834</v>
+        <v>625179.3072668836</v>
       </c>
       <c r="N2" t="n">
-        <v>625179.3072668834</v>
+        <v>625179.3072668836</v>
       </c>
       <c r="O2" t="n">
-        <v>625179.3072668838</v>
+        <v>625179.3072668836</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.6147597547</v>
+        <v>625179.3072668836</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934068</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>334053.3250733756</v>
+        <v>336433.9864356419</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-09</v>
+        <v>2.648484951350838e-09</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>163129.4787408556</v>
+        <v>160866.4619420239</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>6612.132574952934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26418,46 +26418,46 @@
         <v>192206.5963924297</v>
       </c>
       <c r="C4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="D4" t="n">
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.60799709183</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="F4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="G4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="H4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="I4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="J4" t="n">
-        <v>8092.872670013739</v>
+        <v>7888.580768453996</v>
       </c>
       <c r="K4" t="n">
-        <v>8092.872670013589</v>
+        <v>7888.580768453738</v>
       </c>
       <c r="L4" t="n">
-        <v>8092.872670013589</v>
+        <v>7888.580768453773</v>
       </c>
       <c r="M4" t="n">
-        <v>5069.915760662903</v>
+        <v>5069.915760662948</v>
       </c>
       <c r="N4" t="n">
-        <v>5069.915760662968</v>
+        <v>5069.915760662956</v>
       </c>
       <c r="O4" t="n">
-        <v>5069.915760662918</v>
+        <v>5069.91576066291</v>
       </c>
       <c r="P4" t="n">
-        <v>4457.648636658129</v>
+        <v>5069.915760662901</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371364</v>
@@ -26491,13 +26491,13 @@
         <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>100099.5588493308</v>
+        <v>100155.6815945207</v>
       </c>
       <c r="K5" t="n">
-        <v>100099.5588493309</v>
+        <v>100155.6815945208</v>
       </c>
       <c r="L5" t="n">
-        <v>100099.5588493309</v>
+        <v>100155.6815945207</v>
       </c>
       <c r="M5" t="n">
         <v>100930.0394572385</v>
@@ -26509,7 +26509,7 @@
         <v>100930.0394572385</v>
       </c>
       <c r="P5" t="n">
-        <v>101146.6105026698</v>
+        <v>100930.0394572385</v>
       </c>
     </row>
     <row r="6">
@@ -26525,43 +26525,43 @@
         <v>361241.6971889804</v>
       </c>
       <c r="D6" t="n">
-        <v>361241.6971889804</v>
+        <v>361241.6971889802</v>
       </c>
       <c r="E6" t="n">
-        <v>-229903.7705693887</v>
+        <v>-229970.9660596143</v>
       </c>
       <c r="F6" t="n">
-        <v>497473.6434240185</v>
+        <v>497406.4479337922</v>
       </c>
       <c r="G6" t="n">
-        <v>497473.6434240183</v>
+        <v>497406.4479337925</v>
       </c>
       <c r="H6" t="n">
-        <v>497473.6434240184</v>
+        <v>497406.4479337921</v>
       </c>
       <c r="I6" t="n">
-        <v>497473.6434240181</v>
+        <v>497406.4479337925</v>
       </c>
       <c r="J6" t="n">
-        <v>181161.2573190916</v>
+        <v>179007.3065724249</v>
       </c>
       <c r="K6" t="n">
-        <v>515214.5823924654</v>
+        <v>515441.2930080642</v>
       </c>
       <c r="L6" t="n">
-        <v>515214.5823924671</v>
+        <v>515441.293008067</v>
       </c>
       <c r="M6" t="n">
-        <v>356049.8733081263</v>
+        <v>358276.9931250939</v>
       </c>
       <c r="N6" t="n">
-        <v>519179.3520489821</v>
+        <v>519143.4550671178</v>
       </c>
       <c r="O6" t="n">
-        <v>519179.3520489824</v>
+        <v>519143.4550671179</v>
       </c>
       <c r="P6" t="n">
-        <v>513322.2230454739</v>
+        <v>519143.4550671179</v>
       </c>
     </row>
   </sheetData>
@@ -26759,13 +26759,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
-        <v>1309.039113184554</v>
+        <v>1312.350597059646</v>
       </c>
       <c r="K3" t="n">
-        <v>1309.039113184556</v>
+        <v>1312.35059705965</v>
       </c>
       <c r="L3" t="n">
-        <v>1309.039113184556</v>
+        <v>1312.35059705965</v>
       </c>
       <c r="M3" t="n">
         <v>1358.041048716386</v>
@@ -26777,7 +26777,7 @@
         <v>1358.041048716386</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
     </row>
     <row r="4">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26811,13 +26811,13 @@
         <v>1194.51293060493</v>
       </c>
       <c r="J4" t="n">
-        <v>1177.01490430769</v>
+        <v>1176.750634516783</v>
       </c>
       <c r="K4" t="n">
-        <v>1177.01490430769</v>
+        <v>1176.750634516783</v>
       </c>
       <c r="L4" t="n">
-        <v>1177.01490430769</v>
+        <v>1176.750634516783</v>
       </c>
       <c r="M4" t="n">
         <v>1173.104351895088</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762117</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,16 +26981,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>219.262412591256</v>
+        <v>222.5738964663483</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>3.637978807091713e-12</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>49.00193553182953</v>
+        <v>45.69045165673583</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>9.934451625288375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>656.7892464573151</v>
+        <v>656.5249766664081</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>516.3151054377729</v>
+        <v>516.5793752286799</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>68.08019533676975</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>273.3697332463801</v>
       </c>
     </row>
     <row r="3">
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>171.0445594309009</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27582,16 +27582,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>152.4187013741504</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>126.8470454334581</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,7 +27628,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>55.56968306875859</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,7 +27777,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,28 +27816,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>160.4096813856461</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>174.2591579581009</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27856,19 +27856,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>259.0028406609164</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>13.71508326225728</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27907,19 +27907,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,28 +28011,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>107.5829646831825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>56.01837628787189</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28819,7 +28819,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>-3.765876499528531e-13</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-1.023181539494544e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233481</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32549,7 +32549,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
@@ -32570,7 +32570,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32795,7 +32795,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N24" t="n">
         <v>609.6478166837924</v>
@@ -32807,7 +32807,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.262468796721821</v>
+        <v>5.275781294712142</v>
       </c>
       <c r="H26" t="n">
-        <v>53.89425856442737</v>
+        <v>54.03059518447074</v>
       </c>
       <c r="I26" t="n">
-        <v>202.8813282856182</v>
+        <v>203.3945583643901</v>
       </c>
       <c r="J26" t="n">
-        <v>446.6454610357691</v>
+        <v>447.7753426620751</v>
       </c>
       <c r="K26" t="n">
-        <v>669.4057652010039</v>
+        <v>671.0991648672402</v>
       </c>
       <c r="L26" t="n">
-        <v>830.4570446386795</v>
+        <v>832.5578566652871</v>
       </c>
       <c r="M26" t="n">
-        <v>924.0434741023812</v>
+        <v>926.3810322651241</v>
       </c>
       <c r="N26" t="n">
-        <v>938.9954635710671</v>
+        <v>941.370845868725</v>
       </c>
       <c r="O26" t="n">
-        <v>886.6667894736645</v>
+        <v>888.9097956194312</v>
       </c>
       <c r="P26" t="n">
-        <v>756.7495910545944</v>
+        <v>758.663944906225</v>
       </c>
       <c r="Q26" t="n">
-        <v>568.2874272719939</v>
+        <v>569.7250272893463</v>
       </c>
       <c r="R26" t="n">
-        <v>330.5685555520774</v>
+        <v>331.4047967539619</v>
       </c>
       <c r="S26" t="n">
-        <v>119.9185077052986</v>
+        <v>120.2218662532531</v>
       </c>
       <c r="T26" t="n">
-        <v>23.03645715764979</v>
+        <v>23.09473261760241</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4209975037377456</v>
+        <v>0.4220625035769713</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.815669035906399</v>
+        <v>2.82279185027924</v>
       </c>
       <c r="H27" t="n">
-        <v>27.1934351625697</v>
+        <v>27.26222655401266</v>
       </c>
       <c r="I27" t="n">
-        <v>96.9429909292335</v>
+        <v>97.18822817847382</v>
       </c>
       <c r="J27" t="n">
-        <v>266.0189767651744</v>
+        <v>266.6919265213382</v>
       </c>
       <c r="K27" t="n">
-        <v>454.6688021709031</v>
+        <v>455.8189804900472</v>
       </c>
       <c r="L27" t="n">
-        <v>611.358314133975</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>713.4263166855818</v>
+        <v>715.2310753975072</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>406.9493879570987</v>
       </c>
       <c r="O27" t="n">
-        <v>510.3886201350031</v>
+        <v>671.613989044289</v>
       </c>
       <c r="P27" t="n">
-        <v>537.6692916021615</v>
+        <v>539.0294367432348</v>
       </c>
       <c r="Q27" t="n">
-        <v>359.4176825483327</v>
+        <v>360.3269035549429</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>175.2607080375128</v>
       </c>
       <c r="S27" t="n">
-        <v>52.29981739940173</v>
+        <v>52.43212055233584</v>
       </c>
       <c r="T27" t="n">
-        <v>11.34912212279816</v>
+        <v>11.37783206318693</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1852413839412106</v>
+        <v>0.18570999014995</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.360562335250835</v>
+        <v>2.366533863550182</v>
       </c>
       <c r="H28" t="n">
-        <v>20.98754512613926</v>
+        <v>21.04063744138254</v>
       </c>
       <c r="I28" t="n">
-        <v>70.98854731827058</v>
+        <v>71.16812746021822</v>
       </c>
       <c r="J28" t="n">
-        <v>166.891757102234</v>
+        <v>167.3139441529978</v>
       </c>
       <c r="K28" t="n">
-        <v>274.2544240409606</v>
+        <v>274.9482070561029</v>
       </c>
       <c r="L28" t="n">
-        <v>350.9512402790197</v>
+        <v>351.8390436772698</v>
       </c>
       <c r="M28" t="n">
-        <v>370.0288758793649</v>
+        <v>370.964940083598</v>
       </c>
       <c r="N28" t="n">
-        <v>361.2304162661575</v>
+        <v>362.1442229558203</v>
       </c>
       <c r="O28" t="n">
-        <v>333.6547562589091</v>
+        <v>334.4988046407113</v>
       </c>
       <c r="P28" t="n">
-        <v>285.4992846197918</v>
+        <v>286.2215138242873</v>
       </c>
       <c r="Q28" t="n">
-        <v>197.6649060908676</v>
+        <v>198.1649401560066</v>
       </c>
       <c r="R28" t="n">
-        <v>106.1394664559148</v>
+        <v>106.4079680829018</v>
       </c>
       <c r="S28" t="n">
-        <v>41.13816360614408</v>
+        <v>41.24223105841543</v>
       </c>
       <c r="T28" t="n">
-        <v>10.08603906879902</v>
+        <v>10.1115537806235</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1287579455591366</v>
+        <v>0.1290836652845555</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.26246879672183</v>
+        <v>5.275781294712157</v>
       </c>
       <c r="H29" t="n">
-        <v>53.89425856442746</v>
+        <v>54.03059518447089</v>
       </c>
       <c r="I29" t="n">
-        <v>202.8813282856186</v>
+        <v>203.3945583643906</v>
       </c>
       <c r="J29" t="n">
-        <v>446.6454610357699</v>
+        <v>447.7753426620764</v>
       </c>
       <c r="K29" t="n">
-        <v>669.405765201005</v>
+        <v>671.0991648672421</v>
       </c>
       <c r="L29" t="n">
-        <v>830.4570446386809</v>
+        <v>832.5578566652894</v>
       </c>
       <c r="M29" t="n">
-        <v>924.0434741023828</v>
+        <v>926.3810322651267</v>
       </c>
       <c r="N29" t="n">
-        <v>938.9954635710687</v>
+        <v>941.3708458687277</v>
       </c>
       <c r="O29" t="n">
-        <v>886.666789473666</v>
+        <v>888.9097956194336</v>
       </c>
       <c r="P29" t="n">
-        <v>756.7495910545957</v>
+        <v>758.6639449062271</v>
       </c>
       <c r="Q29" t="n">
-        <v>568.2874272719949</v>
+        <v>569.7250272893478</v>
       </c>
       <c r="R29" t="n">
-        <v>330.568555552078</v>
+        <v>331.4047967539628</v>
       </c>
       <c r="S29" t="n">
-        <v>119.9185077052988</v>
+        <v>120.2218662532534</v>
       </c>
       <c r="T29" t="n">
-        <v>23.03645715764982</v>
+        <v>23.09473261760248</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4209975037377464</v>
+        <v>0.4220625035769724</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.815669035906404</v>
+        <v>2.822791850279247</v>
       </c>
       <c r="H30" t="n">
-        <v>27.19343516256975</v>
+        <v>27.26222655401273</v>
       </c>
       <c r="I30" t="n">
-        <v>96.94299092923366</v>
+        <v>97.18822817847409</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>266.6919265213389</v>
       </c>
       <c r="K30" t="n">
-        <v>360.6756516213081</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>611.3583141339761</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>713.4263166855831</v>
+        <v>715.2310753975091</v>
       </c>
       <c r="N30" t="n">
-        <v>732.3085884219906</v>
+        <v>734.1611137267943</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>671.6139890442909</v>
       </c>
       <c r="P30" t="n">
-        <v>537.6692916021624</v>
+        <v>529.7952524892211</v>
       </c>
       <c r="Q30" t="n">
-        <v>359.4176825483333</v>
+        <v>360.326903554944</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>175.2607080375133</v>
       </c>
       <c r="S30" t="n">
-        <v>52.29981739940182</v>
+        <v>52.43212055233598</v>
       </c>
       <c r="T30" t="n">
-        <v>11.34912212279818</v>
+        <v>11.37783206318696</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1852413839412109</v>
+        <v>0.1857099901499505</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.360562335250839</v>
+        <v>2.366533863550188</v>
       </c>
       <c r="H31" t="n">
-        <v>20.98754512613929</v>
+        <v>21.0406374413826</v>
       </c>
       <c r="I31" t="n">
-        <v>70.9885473182707</v>
+        <v>71.16812746021841</v>
       </c>
       <c r="J31" t="n">
-        <v>166.8917571022343</v>
+        <v>167.3139441529983</v>
       </c>
       <c r="K31" t="n">
-        <v>274.2544240409611</v>
+        <v>274.9482070561036</v>
       </c>
       <c r="L31" t="n">
-        <v>350.9512402790202</v>
+        <v>351.8390436772708</v>
       </c>
       <c r="M31" t="n">
-        <v>370.0288758793656</v>
+        <v>370.964940083599</v>
       </c>
       <c r="N31" t="n">
-        <v>361.2304162661582</v>
+        <v>362.1442229558213</v>
       </c>
       <c r="O31" t="n">
-        <v>333.6547562589096</v>
+        <v>334.4988046407122</v>
       </c>
       <c r="P31" t="n">
-        <v>285.4992846197923</v>
+        <v>286.2215138242881</v>
       </c>
       <c r="Q31" t="n">
-        <v>197.664906090868</v>
+        <v>198.1649401560071</v>
       </c>
       <c r="R31" t="n">
-        <v>106.139466455915</v>
+        <v>106.4079680829021</v>
       </c>
       <c r="S31" t="n">
-        <v>41.13816360614415</v>
+        <v>41.24223105841554</v>
       </c>
       <c r="T31" t="n">
-        <v>10.08603906879904</v>
+        <v>10.11155378062353</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1287579455591368</v>
+        <v>0.1290836652845559</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.26246879672183</v>
+        <v>5.275781294712157</v>
       </c>
       <c r="H32" t="n">
-        <v>53.89425856442746</v>
+        <v>54.03059518447089</v>
       </c>
       <c r="I32" t="n">
-        <v>202.8813282856186</v>
+        <v>203.3945583643906</v>
       </c>
       <c r="J32" t="n">
-        <v>446.6454610357699</v>
+        <v>447.7753426620764</v>
       </c>
       <c r="K32" t="n">
-        <v>669.405765201005</v>
+        <v>671.0991648672421</v>
       </c>
       <c r="L32" t="n">
-        <v>830.4570446386809</v>
+        <v>832.5578566652894</v>
       </c>
       <c r="M32" t="n">
-        <v>924.0434741023828</v>
+        <v>926.3810322651267</v>
       </c>
       <c r="N32" t="n">
-        <v>938.9954635710687</v>
+        <v>941.3708458687277</v>
       </c>
       <c r="O32" t="n">
-        <v>886.666789473666</v>
+        <v>888.9097956194336</v>
       </c>
       <c r="P32" t="n">
-        <v>756.7495910545957</v>
+        <v>758.6639449062271</v>
       </c>
       <c r="Q32" t="n">
-        <v>568.2874272719949</v>
+        <v>569.7250272893478</v>
       </c>
       <c r="R32" t="n">
-        <v>330.568555552078</v>
+        <v>331.4047967539628</v>
       </c>
       <c r="S32" t="n">
-        <v>119.9185077052988</v>
+        <v>120.2218662532534</v>
       </c>
       <c r="T32" t="n">
-        <v>23.03645715764982</v>
+        <v>23.09473261760248</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4209975037377464</v>
+        <v>0.4220625035769724</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.815669035906404</v>
+        <v>2.822791850279247</v>
       </c>
       <c r="H33" t="n">
-        <v>27.19343516256975</v>
+        <v>27.26222655401273</v>
       </c>
       <c r="I33" t="n">
-        <v>96.94299092923366</v>
+        <v>97.18822817847409</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>266.6919265213389</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>455.8189804900485</v>
       </c>
       <c r="L33" t="n">
-        <v>306.8694809147789</v>
+        <v>612.9048708248866</v>
       </c>
       <c r="M33" t="n">
-        <v>713.4263166855831</v>
+        <v>715.2310753975091</v>
       </c>
       <c r="N33" t="n">
-        <v>732.3085884219906</v>
+        <v>461.6166415119238</v>
       </c>
       <c r="O33" t="n">
-        <v>669.9192903105908</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>537.6692916021624</v>
+        <v>539.0294367432363</v>
       </c>
       <c r="Q33" t="n">
-        <v>359.4176825483333</v>
+        <v>360.326903554944</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>175.2607080375133</v>
       </c>
       <c r="S33" t="n">
-        <v>52.29981739940182</v>
+        <v>52.43212055233598</v>
       </c>
       <c r="T33" t="n">
-        <v>11.34912212279818</v>
+        <v>11.37783206318696</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1852413839412109</v>
+        <v>0.1857099901499505</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.360562335250839</v>
+        <v>2.366533863550188</v>
       </c>
       <c r="H34" t="n">
-        <v>20.98754512613929</v>
+        <v>21.0406374413826</v>
       </c>
       <c r="I34" t="n">
-        <v>70.9885473182707</v>
+        <v>71.16812746021841</v>
       </c>
       <c r="J34" t="n">
-        <v>166.8917571022343</v>
+        <v>167.3139441529983</v>
       </c>
       <c r="K34" t="n">
-        <v>274.2544240409611</v>
+        <v>274.9482070561036</v>
       </c>
       <c r="L34" t="n">
-        <v>350.9512402790202</v>
+        <v>351.8390436772708</v>
       </c>
       <c r="M34" t="n">
-        <v>370.0288758793656</v>
+        <v>370.964940083599</v>
       </c>
       <c r="N34" t="n">
-        <v>361.2304162661582</v>
+        <v>362.1442229558213</v>
       </c>
       <c r="O34" t="n">
-        <v>333.6547562589096</v>
+        <v>334.4988046407122</v>
       </c>
       <c r="P34" t="n">
-        <v>285.4992846197923</v>
+        <v>286.2215138242881</v>
       </c>
       <c r="Q34" t="n">
-        <v>197.664906090868</v>
+        <v>198.1649401560071</v>
       </c>
       <c r="R34" t="n">
-        <v>106.139466455915</v>
+        <v>106.4079680829021</v>
       </c>
       <c r="S34" t="n">
-        <v>41.13816360614415</v>
+        <v>41.24223105841554</v>
       </c>
       <c r="T34" t="n">
-        <v>10.08603906879904</v>
+        <v>10.11155378062353</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1287579455591368</v>
+        <v>0.1290836652845559</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33731,34 +33731,34 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J36" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>471.6886536848224</v>
+        <v>252.7396269350879</v>
       </c>
       <c r="L36" t="n">
         <v>634.2436048745725</v>
       </c>
       <c r="M36" t="n">
-        <v>740.1323715504302</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>487.0792071670518</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O36" t="n">
         <v>694.9967242426205</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S36" t="n">
         <v>54.25758340862161</v>
@@ -33883,46 +33883,46 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H38" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K38" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L38" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M38" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N38" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O38" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P38" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q38" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R38" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S38" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T38" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U38" t="n">
         <v>0.436756920190194</v>
@@ -33965,43 +33965,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H39" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>197.1874846502129</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>420.7661933823242</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M39" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N39" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O39" t="n">
-        <v>694.9967242426204</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>557.7961431982453</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S39" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T39" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U39" t="n">
         <v>0.1921756201013754</v>
@@ -34056,16 +34056,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L40" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M40" t="n">
         <v>383.8803574265022</v>
       </c>
       <c r="N40" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O40" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P40" t="n">
         <v>296.1865264282424</v>
@@ -34077,7 +34077,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S40" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T40" t="n">
         <v>10.46359496551969</v>
@@ -34120,46 +34120,46 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H41" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K41" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L41" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M41" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N41" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O41" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P41" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q41" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R41" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S41" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T41" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U41" t="n">
         <v>0.436756920190194</v>
@@ -34202,43 +34202,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H42" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L42" t="n">
-        <v>187.8760176396507</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M42" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N42" t="n">
-        <v>759.7214730927637</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>694.9967242426204</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P42" t="n">
-        <v>557.7961431982453</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q42" t="n">
-        <v>372.8719498286952</v>
+        <v>184.3043464599795</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S42" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T42" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U42" t="n">
         <v>0.1921756201013754</v>
@@ -34284,7 +34284,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I43" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J43" t="n">
         <v>173.1391022273333</v>
@@ -34293,16 +34293,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L43" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M43" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N43" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O43" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P43" t="n">
         <v>296.1865264282424</v>
@@ -34314,7 +34314,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S43" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T43" t="n">
         <v>10.46359496551969</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34448,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L45" t="n">
-        <v>164.2853229338201</v>
+        <v>242.1675041333944</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34787,7 +34787,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932188</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181304</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
         <v>297.2230414343419</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116794</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,22 +35012,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,16 +35407,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>404.727924322443</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
         <v>989.6487598248956</v>
@@ -35425,10 +35425,10 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>627.9163536265537</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
         <v>125.3296184152072</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>210.5845066849054</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>355.1919758584683</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
         <v>125.3296184152072</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013298</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.3942385378936</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,13 +35881,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427824</v>
+        <v>559.3763608778471</v>
       </c>
       <c r="M17" t="n">
         <v>988.434649323059</v>
@@ -35896,16 +35896,16 @@
         <v>989.6487598248955</v>
       </c>
       <c r="O17" t="n">
-        <v>641.306058528246</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
         <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306617</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.85694616754</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226397</v>
@@ -36060,7 +36060,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.3942385378936</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>258.3236387357559</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248955</v>
+        <v>962.7208389335791</v>
       </c>
       <c r="O20" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
@@ -36218,7 +36218,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306617</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443195</v>
@@ -36285,10 +36285,10 @@
         <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.85694616754</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226397</v>
@@ -36297,7 +36297,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.3942385378936</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,7 +36358,7 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
         <v>873.2513289427824</v>
@@ -36367,19 +36367,19 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>867.4697571238438</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509644</v>
+        <v>812.7881814881896</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,7 +36443,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N24" t="n">
         <v>478.3061046004591</v>
@@ -36455,7 +36455,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306616</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
         <v>206.0476595443195</v>
@@ -36522,16 +36522,16 @@
         <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
-        <v>344.85694616754</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
         <v>78.39423853789363</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>265.5995565090828</v>
+        <v>266.7294381353888</v>
       </c>
       <c r="K26" t="n">
-        <v>449.3159141560233</v>
+        <v>451.0093138222597</v>
       </c>
       <c r="L26" t="n">
-        <v>594.6906296686923</v>
+        <v>671.9296042536704</v>
       </c>
       <c r="M26" t="n">
-        <v>998.2650306858882</v>
+        <v>696.0347990378514</v>
       </c>
       <c r="N26" t="n">
-        <v>709.5823999744762</v>
+        <v>711.9577822721342</v>
       </c>
       <c r="O26" t="n">
-        <v>656.5685780519777</v>
+        <v>658.8115841977444</v>
       </c>
       <c r="P26" t="n">
-        <v>525.5165952993248</v>
+        <v>527.4309491509555</v>
       </c>
       <c r="Q26" t="n">
-        <v>345.9817373975444</v>
+        <v>559.7343280748014</v>
       </c>
       <c r="R26" t="n">
-        <v>114.9830177379453</v>
+        <v>115.8192589398298</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>139.1813500985077</v>
+        <v>139.8542998546715</v>
       </c>
       <c r="K27" t="n">
-        <v>316.8273631965441</v>
+        <v>317.9775415156882</v>
       </c>
       <c r="L27" t="n">
-        <v>472.8039343541008</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>571.2922827635634</v>
+        <v>573.0970414754888</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>275.6076758737654</v>
       </c>
       <c r="O27" t="n">
-        <v>367.7923756905587</v>
+        <v>529.0177445998446</v>
       </c>
       <c r="P27" t="n">
-        <v>403.6948841878312</v>
+        <v>405.0550293289045</v>
       </c>
       <c r="Q27" t="n">
-        <v>219.4359084623111</v>
+        <v>220.3451294689214</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.58120407354889</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>73.53257698556124</v>
+        <v>73.95476403632506</v>
       </c>
       <c r="K28" t="n">
-        <v>251.9849322150777</v>
+        <v>252.67871523022</v>
       </c>
       <c r="L28" t="n">
-        <v>378.5412655393358</v>
+        <v>379.429068937586</v>
       </c>
       <c r="M28" t="n">
-        <v>409.6127528412055</v>
+        <v>410.5488170454386</v>
       </c>
       <c r="N28" t="n">
-        <v>405.3625886453862</v>
+        <v>406.276395335049</v>
       </c>
       <c r="O28" t="n">
-        <v>358.2398841729487</v>
+        <v>359.083932554751</v>
       </c>
       <c r="P28" t="n">
-        <v>282.7778438846852</v>
+        <v>283.5000730891808</v>
       </c>
       <c r="Q28" t="n">
-        <v>111.5028628391733</v>
+        <v>112.0028969043122</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>265.5995565090836</v>
+        <v>266.7294381353901</v>
       </c>
       <c r="K29" t="n">
-        <v>753.8837039667915</v>
+        <v>451.0093138222615</v>
       </c>
       <c r="L29" t="n">
-        <v>594.6906296686936</v>
+        <v>596.7914416953022</v>
       </c>
       <c r="M29" t="n">
-        <v>693.6972408751101</v>
+        <v>696.034799037854</v>
       </c>
       <c r="N29" t="n">
-        <v>709.5823999744778</v>
+        <v>711.9577822721367</v>
       </c>
       <c r="O29" t="n">
-        <v>656.5685780519792</v>
+        <v>658.8115841977468</v>
       </c>
       <c r="P29" t="n">
-        <v>525.5165952993261</v>
+        <v>814.8841023692149</v>
       </c>
       <c r="Q29" t="n">
-        <v>345.9817373975454</v>
+        <v>347.4193374148983</v>
       </c>
       <c r="R29" t="n">
-        <v>114.9830177379458</v>
+        <v>115.8192589398307</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>139.8542998546722</v>
       </c>
       <c r="K30" t="n">
-        <v>222.8342126469491</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>472.803934354102</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>571.2922827635648</v>
+        <v>573.0970414754909</v>
       </c>
       <c r="N30" t="n">
-        <v>600.9668763386574</v>
+        <v>602.819401643461</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>529.0177445998464</v>
       </c>
       <c r="P30" t="n">
-        <v>403.6948841878321</v>
+        <v>395.8208450748908</v>
       </c>
       <c r="Q30" t="n">
-        <v>219.4359084623118</v>
+        <v>220.3451294689224</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.58120407354937</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>73.53257698556152</v>
+        <v>73.95476403632551</v>
       </c>
       <c r="K31" t="n">
-        <v>251.9849322150782</v>
+        <v>252.6787152302208</v>
       </c>
       <c r="L31" t="n">
-        <v>378.5412655393363</v>
+        <v>379.4290689375869</v>
       </c>
       <c r="M31" t="n">
-        <v>409.6127528412061</v>
+        <v>410.5488170454396</v>
       </c>
       <c r="N31" t="n">
-        <v>405.3625886453867</v>
+        <v>406.2763953350499</v>
       </c>
       <c r="O31" t="n">
-        <v>358.2398841729493</v>
+        <v>359.0839325547519</v>
       </c>
       <c r="P31" t="n">
-        <v>282.7778438846858</v>
+        <v>283.5000730891816</v>
       </c>
       <c r="Q31" t="n">
-        <v>111.5028628391736</v>
+        <v>112.0028969043127</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>434.6961716811574</v>
+        <v>266.7294381353901</v>
       </c>
       <c r="K32" t="n">
-        <v>449.3159141560245</v>
+        <v>451.0093138222615</v>
       </c>
       <c r="L32" t="n">
-        <v>594.6906296686936</v>
+        <v>596.7914416953022</v>
       </c>
       <c r="M32" t="n">
-        <v>693.6972408751101</v>
+        <v>696.034799037854</v>
       </c>
       <c r="N32" t="n">
-        <v>709.5823999744778</v>
+        <v>711.9577822721367</v>
       </c>
       <c r="O32" t="n">
-        <v>656.5685780519792</v>
+        <v>658.8115841977468</v>
       </c>
       <c r="P32" t="n">
-        <v>525.5165952993261</v>
+        <v>814.884102369214</v>
       </c>
       <c r="Q32" t="n">
-        <v>415.7364921632562</v>
+        <v>347.4193374148983</v>
       </c>
       <c r="R32" t="n">
-        <v>180.6994376109283</v>
+        <v>115.8192589398307</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>139.8542998546722</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>317.9775415156895</v>
       </c>
       <c r="L33" t="n">
-        <v>168.3151011349048</v>
+        <v>474.3504910450125</v>
       </c>
       <c r="M33" t="n">
-        <v>571.2922827635648</v>
+        <v>573.0970414754909</v>
       </c>
       <c r="N33" t="n">
-        <v>600.9668763386574</v>
+        <v>330.2749294285905</v>
       </c>
       <c r="O33" t="n">
-        <v>527.3230458661463</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>403.6948841878321</v>
+        <v>405.055029328906</v>
       </c>
       <c r="Q33" t="n">
-        <v>219.4359084623118</v>
+        <v>220.3451294689224</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.58120407354937</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>73.53257698556152</v>
+        <v>73.95476403632551</v>
       </c>
       <c r="K34" t="n">
-        <v>251.9849322150782</v>
+        <v>252.6787152302208</v>
       </c>
       <c r="L34" t="n">
-        <v>378.5412655393363</v>
+        <v>379.4290689375869</v>
       </c>
       <c r="M34" t="n">
-        <v>409.6127528412061</v>
+        <v>410.5488170454396</v>
       </c>
       <c r="N34" t="n">
-        <v>405.3625886453867</v>
+        <v>406.2763953350499</v>
       </c>
       <c r="O34" t="n">
-        <v>358.2398841729493</v>
+        <v>359.0839325547519</v>
       </c>
       <c r="P34" t="n">
-        <v>282.7778438846858</v>
+        <v>283.5000730891816</v>
       </c>
       <c r="Q34" t="n">
-        <v>111.5028628391736</v>
+        <v>112.0028969043127</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37315,13 +37315,13 @@
         <v>728.2874363020583</v>
       </c>
       <c r="N35" t="n">
-        <v>796.0449487554599</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O35" t="n">
         <v>689.7596327870085</v>
       </c>
       <c r="P35" t="n">
-        <v>553.844392613483</v>
+        <v>605.1570404425727</v>
       </c>
       <c r="Q35" t="n">
         <v>367.2547334404112</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J36" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>333.8472147104634</v>
+        <v>114.8981879607289</v>
       </c>
       <c r="L36" t="n">
         <v>495.6892250946983</v>
       </c>
       <c r="M36" t="n">
-        <v>597.9983376284119</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>355.7374950837184</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O36" t="n">
         <v>552.4004797981761</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K38" t="n">
-        <v>474.3741250380625</v>
+        <v>525.686772867153</v>
       </c>
       <c r="L38" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M38" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N38" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O38" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P38" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q38" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R38" t="n">
-        <v>178.670008613675</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>70.34985798354619</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>282.21181360245</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M39" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N39" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O39" t="n">
-        <v>552.400479798176</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>423.8217357839151</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K40" t="n">
         <v>262.2512393642057</v>
@@ -37713,7 +37713,7 @@
         <v>418.8847129209161</v>
       </c>
       <c r="O40" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P40" t="n">
         <v>293.4650856931359</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K41" t="n">
-        <v>474.3741250380625</v>
+        <v>525.686772867153</v>
       </c>
       <c r="L41" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M41" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N41" t="n">
-        <v>796.0449487554608</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O41" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P41" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q41" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R41" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L42" t="n">
-        <v>49.32163785977649</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M42" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N42" t="n">
-        <v>628.3797610094305</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>552.400479798176</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P42" t="n">
-        <v>423.8217357839151</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q42" t="n">
-        <v>232.8901757426737</v>
+        <v>44.32257237395797</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K43" t="n">
         <v>262.2512393642057</v>
@@ -37944,19 +37944,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M43" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N43" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O43" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P43" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q43" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>741.0722806160982</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L45" t="n">
-        <v>25.73094315394586</v>
+        <v>103.6131243535202</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
